--- a/Documentation/Task List -Iteration 2 - Epworth Project .xlsx
+++ b/Documentation/Task List -Iteration 2 - Epworth Project .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="580" windowWidth="11180" windowHeight="7880" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -2516,6 +2516,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1701800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2838,6 +2889,57 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 5" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3230,6 +3332,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9664700</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3552,6 +3705,57 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 5" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3944,6 +4148,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6170,8 +6425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>

--- a/Documentation/Task List -Iteration 2 - Epworth Project .xlsx
+++ b/Documentation/Task List -Iteration 2 - Epworth Project .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22420" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="570" windowWidth="11175" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,7 @@
     <sheet name="Iteration 4" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration 5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -128,6 +123,41 @@
             <rFont val="Arial"/>
           </rPr>
           <t xml:space="preserve">The Name of the document or programs that contains this deliverable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">Individual work assignments
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Individual work assignments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">Individual work assignments
 </t>
         </r>
       </text>
@@ -309,7 +339,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="378">
   <si>
     <t>Team Name</t>
   </si>
@@ -320,21 +350,12 @@
     <t>Project Manager/Test Manager</t>
   </si>
   <si>
-    <t>Project Manager/Test Manager</t>
-  </si>
-  <si>
     <t>Systems Analyst</t>
   </si>
   <si>
-    <t>Systems Analyst</t>
-  </si>
-  <si>
     <t>Architect</t>
   </si>
   <si>
-    <t>Architect</t>
-  </si>
-  <si>
     <t>Assignment 1 - Elaboration Iteration - Due Week 3</t>
   </si>
   <si>
@@ -1440,13 +1461,25 @@
   </si>
   <si>
     <t>Develop test plans &amp; test software developed by the Test Manager/Project Manager</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Shuhei</t>
+  </si>
+  <si>
+    <t>No Bugs Reported</t>
+  </si>
+  <si>
+    <t>Bugs reported</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1465,10 +1498,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -2008,7 +2037,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2019,133 +2048,142 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2473,10 +2511,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1701800</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6734175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2488,7 +2526,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,14 +2543,6 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2524,10 +2554,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1701800</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6734175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2539,7 +2569,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2556,14 +2586,49 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6734175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2882,9 +2947,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9639300</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>6848475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2896,7 +2961,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2913,14 +2978,6 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2932,14 +2989,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6848475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvPr id="2057" name="Rectangle 9" hidden="1"/>
         <xdr:cNvSpPr>
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2947,7 +3004,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2964,14 +3021,49 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6848475</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 9" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3290,9 +3382,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9664700</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>6867525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3304,7 +3396,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3321,14 +3413,6 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3341,9 +3425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9664700</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>6867525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3355,7 +3439,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3372,14 +3456,49 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6867525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3698,9 +3817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3712,7 +3831,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3729,14 +3848,6 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3749,9 +3860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3763,7 +3874,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3780,14 +3891,49 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4106,9 +4252,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4120,7 +4266,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4137,14 +4283,6 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4157,9 +4295,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4171,7 +4309,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12700000" cy="12700000"/>
+          <a:ext cx="9525000" cy="9525000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4188,14 +4326,49 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4491,25 +4664,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" customWidth="1"/>
-    <col min="3" max="3" width="102.5" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="16" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="102.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1">
+    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4528,7 +4701,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1">
+    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4551,10 +4724,10 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="24" customHeight="1">
+    <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="46" t="s">
-        <v>374</v>
+      <c r="B3" s="45" t="s">
+        <v>371</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
@@ -4572,7 +4745,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="9.75" customHeight="1">
+    <row r="4" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4591,13 +4764,13 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>3</v>
+      <c r="C5" s="49" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -4614,13 +4787,13 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C6" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -4637,13 +4810,13 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="22.5" customHeight="1">
+    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="49" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -4660,11 +4833,11 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -4679,13 +4852,13 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -4700,7 +4873,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4719,25 +4892,25 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="33.75" customHeight="1">
+    <row r="11" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -4750,23 +4923,23 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="30.75" customHeight="1">
+    <row r="12" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="10" t="str">
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f>$C$5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -4778,21 +4951,21 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1">
+    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="str">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9" t="str">
         <f>$C$5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -4804,18 +4977,18 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -4827,19 +5000,19 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1">
+    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="10" t="str">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="9" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -4851,20 +5024,20 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -4876,21 +5049,21 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="30" customHeight="1">
+    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="10" t="str">
+      <c r="B17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -4902,18 +5075,18 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -4925,21 +5098,21 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="10" t="e">
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -4951,19 +5124,19 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="30" customHeight="1">
+    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="10" t="str">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="9" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -4975,19 +5148,19 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="10" t="str">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="9" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -4999,19 +5172,19 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="10" t="str">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -5023,21 +5196,21 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="10" t="str">
+      <c r="B23" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="9" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -5049,19 +5222,19 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="10" t="str">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="9" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -5073,19 +5246,19 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="30" customHeight="1">
+    <row r="25" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="10" t="str">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="9" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -5097,21 +5270,21 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1">
+    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="10" t="str">
+      <c r="B26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="9" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -5123,19 +5296,19 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1">
+    <row r="27" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="10" t="str">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="9" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -5147,19 +5320,19 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="18" customHeight="1">
+    <row r="28" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="10" t="e">
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -5171,19 +5344,19 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="18" customHeight="1">
+    <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="10" t="e">
+      <c r="B29" s="7"/>
+      <c r="C29" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" s="9" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -5195,19 +5368,19 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="13" t="e">
+      <c r="B30" s="7"/>
+      <c r="C30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="12" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -5219,22 +5392,22 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="B31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="16"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="18"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -5244,26 +5417,26 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-    </row>
-    <row r="33" spans="1:17" ht="12.75" customHeight="1">
+    <row r="32" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5282,7 +5455,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75" customHeight="1">
+    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5301,7 +5474,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="12.75" customHeight="1">
+    <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5320,12 +5493,12 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="12.75" customHeight="1">
+    <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="11"/>
+        <v>45</v>
+      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -5341,10 +5514,10 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" customHeight="1">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5360,12 +5533,12 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75" customHeight="1">
+    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -5381,12 +5554,12 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1">
+    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -5402,13 +5575,13 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
-      <c r="B40" s="19" t="e">
+      <c r="B40" s="18" t="e">
         <f>D19</f>
         <v>#REF!</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -5424,12 +5597,12 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="11"/>
+        <v>48</v>
+      </c>
+      <c r="C41" s="10"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -5445,10 +5618,10 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -5464,10 +5637,10 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -5483,10 +5656,10 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="10"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -5502,10 +5675,10 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="10"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -5521,10 +5694,10 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -5540,10 +5713,10 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -5559,10 +5732,10 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -5578,10 +5751,10 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75" customHeight="1">
+    <row r="49" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -5597,10 +5770,10 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1">
+    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -5616,7 +5789,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75" customHeight="1">
+    <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5635,12 +5808,12 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75" customHeight="1">
+    <row r="52" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C52" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="C52" s="10"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -5656,10 +5829,10 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75" customHeight="1">
+    <row r="53" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -5675,12 +5848,12 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75" customHeight="1">
+    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="C54" s="10"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -5696,12 +5869,12 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75" customHeight="1">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="11"/>
+        <v>51</v>
+      </c>
+      <c r="C55" s="10"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -5717,13 +5890,13 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75" customHeight="1">
+    <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="19" t="str">
+      <c r="B56" s="18" t="str">
         <f>D20</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="C56" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="C56" s="10"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -5739,12 +5912,12 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="11"/>
+        <v>52</v>
+      </c>
+      <c r="C57" s="10"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -5760,10 +5933,10 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" customHeight="1">
+    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -5779,10 +5952,10 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="12.75" customHeight="1">
+    <row r="59" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="11"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -5798,10 +5971,10 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="12.75" customHeight="1">
+    <row r="60" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="11"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -5817,10 +5990,10 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="12.75" customHeight="1">
+    <row r="61" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -5836,10 +6009,10 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" customHeight="1">
+    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="11"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -5855,10 +6028,10 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="12.75" customHeight="1">
+    <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="11"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -5874,10 +6047,10 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75" customHeight="1">
+    <row r="64" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="11"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -5893,10 +6066,10 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75" customHeight="1">
+    <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="11"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -5912,10 +6085,10 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" customHeight="1">
+    <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="11"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -5931,7 +6104,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75" customHeight="1">
+    <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -5950,12 +6123,12 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75" customHeight="1">
+    <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="C68" s="10"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -5971,10 +6144,10 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75" customHeight="1">
+    <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="11"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -5990,12 +6163,12 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75" customHeight="1">
+    <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="C70" s="10"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -6011,12 +6184,12 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="12.75" customHeight="1">
+    <row r="71" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C71" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="C71" s="10"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -6032,13 +6205,13 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="12.75" customHeight="1">
+    <row r="72" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="19" t="str">
+      <c r="B72" s="18" t="str">
         <f>D21</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="C72" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="C72" s="10"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -6054,12 +6227,12 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" customHeight="1">
+    <row r="73" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="C73" s="10"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -6075,10 +6248,10 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" customHeight="1">
+    <row r="74" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="11"/>
+      <c r="C74" s="10"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -6094,10 +6267,10 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" customHeight="1">
+    <row r="75" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="11"/>
+      <c r="C75" s="10"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -6113,10 +6286,10 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" customHeight="1">
+    <row r="76" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="11"/>
+      <c r="C76" s="10"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -6132,10 +6305,10 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" customHeight="1">
+    <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="11"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -6151,10 +6324,10 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" customHeight="1">
+    <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="11"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -6170,10 +6343,10 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" customHeight="1">
+    <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="11"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -6189,10 +6362,10 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" customHeight="1">
+    <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="11"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -6208,10 +6381,10 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="11"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -6227,10 +6400,10 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="11"/>
+      <c r="C82" s="10"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -6246,7 +6419,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75" customHeight="1">
+    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6265,12 +6438,12 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75" customHeight="1">
+    <row r="84" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C84" s="11"/>
+        <v>57</v>
+      </c>
+      <c r="C84" s="10"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -6286,10 +6459,10 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75" customHeight="1">
+    <row r="85" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="11"/>
+      <c r="C85" s="10"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -6305,12 +6478,12 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75" customHeight="1">
+    <row r="86" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="C86" s="10"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -6326,12 +6499,12 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" customHeight="1">
+    <row r="87" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C87" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="C87" s="10"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -6347,13 +6520,13 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75" customHeight="1">
+    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="19" t="str">
+      <c r="B88" s="18" t="str">
         <f>D22</f>
-        <v>Architect</v>
-      </c>
-      <c r="C88" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="C88" s="10"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -6369,12 +6542,12 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75" customHeight="1">
+    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C89" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="C89" s="10"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -6390,10 +6563,10 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75" customHeight="1">
+    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="11"/>
+      <c r="C90" s="10"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -6413,11 +6586,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6425,32 +6593,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
-    <col min="3" max="3" width="120" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="16" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="141.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1">
+    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -6462,18 +6630,18 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25" customHeight="1">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -6485,19 +6653,19 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="23.25" customHeight="1">
+    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="str">
+      <c r="B3" s="20" t="str">
         <f>'Iteration 1'!B3</f>
         <v>JPRS Squad</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>374</v>
+      <c r="C3" s="44" t="s">
+        <v>371</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -6509,14 +6677,14 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="9" customHeight="1">
+    <row r="4" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -6528,19 +6696,19 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="str">
         <f>'Iteration 1'!B5</f>
         <v>Project Manager/Test Manager</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>66</v>
+      <c r="C5" s="21" t="s">
+        <v>63</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -6552,19 +6720,19 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="23.25" customHeight="1">
+    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="str">
         <f>'Iteration 1'!B6</f>
         <v>Systems Analyst</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>67</v>
+      <c r="C6" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -6576,19 +6744,19 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="str">
         <f>'Iteration 1'!B7</f>
         <v>Architect</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>68</v>
+      <c r="C7" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -6600,14 +6768,14 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -6619,16 +6787,16 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>69</v>
+      <c r="B9" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -6640,14 +6808,14 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -6659,30 +6827,36 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1">
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>75</v>
-      </c>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="I11" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="J11" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="K11" s="48" t="s">
+        <v>63</v>
+      </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -6690,31 +6864,31 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="10" t="str">
+      <c r="B12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f>$C$5</f>
         <v>Rudhra</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="25">
+      <c r="E12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="24">
         <v>1</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -6722,25 +6896,25 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="10" t="str">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="9" t="str">
         <f>$C$5</f>
         <v>Rudhra</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="E13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -6748,23 +6922,23 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1">
+    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="10" t="str">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="9" t="str">
         <f>C7</f>
         <v>Paulo Goncalves</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -6772,29 +6946,29 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="13" t="str">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="12" t="str">
         <f>C5</f>
         <v>Rudhra</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="E15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" s="24">
         <v>1</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -6802,23 +6976,23 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="13" t="str">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="12" t="str">
         <f>C7</f>
         <v>Paulo Goncalves</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -6826,23 +7000,23 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="13" t="str">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="12" t="str">
         <f>C6</f>
         <v>Shuhei Nakahodo</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -6850,22 +7024,22 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -6873,25 +7047,25 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="27" t="str">
+      <c r="B19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="26" t="str">
         <f>C6</f>
         <v>Shuhei Nakahodo</v>
       </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -6899,23 +7073,23 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="27" t="str">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="26" t="str">
         <f>C6</f>
         <v>Shuhei Nakahodo</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -6923,24 +7097,26 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -6948,22 +7124,24 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -6971,27 +7149,27 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="10" t="str">
+      <c r="B23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="9" t="str">
         <f>C6</f>
         <v>Shuhei Nakahodo</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="E23" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -6999,25 +7177,29 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="10" t="str">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="9" t="str">
         <f>C7</f>
         <v>Paulo Goncalves</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="47">
+        <v>1</v>
+      </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="46"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -7025,25 +7207,29 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D25" s="10" t="str">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="9" t="str">
         <f>C5</f>
         <v>Rudhra</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
+      <c r="E25" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="47">
+        <v>1</v>
+      </c>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="46"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -7051,25 +7237,29 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="10" t="str">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="9" t="str">
         <f>C6</f>
         <v>Shuhei Nakahodo</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
+      <c r="E26" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="47">
+        <v>1</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="46"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -7077,24 +7267,28 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>376</v>
+      </c>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -7102,23 +7296,23 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D28" s="27" t="str">
+      <c r="B28" s="7"/>
+      <c r="C28" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="26" t="str">
         <f>C7</f>
         <v>Paulo Goncalves</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -7126,23 +7320,23 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="13.5" customHeight="1">
+    <row r="29" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="13" t="str">
+      <c r="B29" s="7"/>
+      <c r="C29" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" s="12" t="str">
         <f>C7 &amp; " / " &amp;C6</f>
         <v>Paulo Goncalves / Shuhei Nakahodo</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -7150,27 +7344,31 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D30" s="10" t="str">
+      <c r="B30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="9" t="str">
         <f>C7</f>
         <v>Paulo Goncalves</v>
       </c>
-      <c r="E30" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
+      <c r="E30" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="47">
+        <v>1</v>
+      </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -7178,25 +7376,25 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="D31" s="10" t="str">
+      <c r="B31" s="7"/>
+      <c r="C31" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D31" s="9" t="str">
         <f>C6</f>
         <v>Shuhei Nakahodo</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
+      <c r="E31" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -7204,25 +7402,31 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="10" t="str">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="9" t="str">
         <f>C5</f>
         <v>Rudhra</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+      <c r="E32" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="47">
+        <v>1</v>
+      </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="46" t="s">
+        <v>76</v>
+      </c>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -7230,23 +7434,27 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="13" t="str">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="12" t="str">
         <f>C5</f>
         <v>Rudhra</v>
       </c>
-      <c r="E33" s="30"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="47">
+        <v>1</v>
+      </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -7254,23 +7462,27 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="13" t="str">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="12" t="str">
         <f>C5</f>
         <v>Rudhra</v>
       </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="G34" s="47">
+        <v>1</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="25"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -7278,18 +7490,18 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -7297,14 +7509,14 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="13.5" customHeight="1">
+    <row r="36" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -7316,14 +7528,14 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" customHeight="1">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -7335,18 +7547,18 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75" customHeight="1">
+    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>120</v>
+        <v>116</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -7358,16 +7570,16 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1">
+    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
-      <c r="C39" s="11" t="s">
-        <v>121</v>
+      <c r="C39" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -7379,18 +7591,18 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -7402,18 +7614,18 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>125</v>
+        <v>121</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>122</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -7425,19 +7637,19 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="19" t="str">
+      <c r="B42" s="18" t="str">
         <f>D19</f>
         <v>Shuhei Nakahodo</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>126</v>
+      <c r="C42" s="10" t="s">
+        <v>123</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -7449,18 +7661,18 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="19"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -7472,16 +7684,16 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
-      <c r="C44" s="11" t="s">
-        <v>129</v>
+      <c r="C44" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -7493,16 +7705,16 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
-      <c r="C45" s="11" t="s">
-        <v>130</v>
+      <c r="C45" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -7514,14 +7726,14 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -7533,14 +7745,14 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -7552,14 +7764,14 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -7571,14 +7783,14 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75" customHeight="1">
+    <row r="49" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -7590,14 +7802,14 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1">
+    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -7609,14 +7821,14 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75" customHeight="1">
+    <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="11"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -7628,14 +7840,14 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75" customHeight="1">
+    <row r="52" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="11"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -7647,14 +7859,14 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75" customHeight="1">
+    <row r="53" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -7666,14 +7878,14 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75" customHeight="1">
+    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -7685,14 +7897,14 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75" customHeight="1">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="11"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -7704,14 +7916,14 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75" customHeight="1">
+    <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -7723,14 +7935,14 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -7742,24 +7954,24 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" customHeight="1">
+    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="E58" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -7771,14 +7983,14 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="12.75" customHeight="1">
+    <row r="59" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -7790,22 +8002,22 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="12.75" customHeight="1">
+    <row r="60" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" s="24">
+        <v>133</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="23">
         <v>1</v>
       </c>
-      <c r="E60" s="24">
+      <c r="E60" s="23">
         <v>1</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -7817,22 +8029,22 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="12.75" customHeight="1">
+    <row r="61" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D61" s="24">
+        <v>135</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="23">
         <v>1</v>
       </c>
-      <c r="E61" s="24">
+      <c r="E61" s="23">
         <v>1</v>
       </c>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -7844,23 +8056,23 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" customHeight="1">
+    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
-      <c r="B62" s="19" t="str">
+      <c r="B62" s="18" t="str">
         <f>D24</f>
         <v>Paulo Goncalves</v>
       </c>
-      <c r="C62" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D62" s="24">
+      <c r="C62" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="23">
         <v>1</v>
       </c>
-      <c r="E62" s="24">
+      <c r="E62" s="23">
         <v>1</v>
       </c>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -7872,22 +8084,22 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="12.75" customHeight="1">
+    <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D63" s="24">
+        <v>138</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D63" s="23">
         <v>1</v>
       </c>
-      <c r="E63" s="24">
+      <c r="E63" s="23">
         <v>1</v>
       </c>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="19"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -7899,20 +8111,20 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75" customHeight="1">
+    <row r="64" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" s="24">
+      <c r="C64" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="23">
         <v>1</v>
       </c>
-      <c r="E64" s="24">
+      <c r="E64" s="23">
         <v>1</v>
       </c>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="19"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -7924,20 +8136,20 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75" customHeight="1">
+    <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="24">
+      <c r="C65" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="23">
         <v>1</v>
       </c>
-      <c r="E65" s="24">
+      <c r="E65" s="23">
         <v>1</v>
       </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -7949,20 +8161,20 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" customHeight="1">
+    <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="24">
+      <c r="C66" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="23">
         <v>1</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E66" s="23">
         <v>1</v>
       </c>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -7974,14 +8186,14 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75" customHeight="1">
+    <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -7993,19 +8205,19 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75" customHeight="1">
+    <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="E68" s="26">
+      <c r="C68" s="10"/>
+      <c r="D68" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="25">
         <f>SUM(E60:E67)</f>
         <v>7</v>
       </c>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -8017,14 +8229,14 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75" customHeight="1">
+    <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -8036,22 +8248,22 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75" customHeight="1">
+    <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C70" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
+      <c r="F70" s="19"/>
+      <c r="G70" s="19"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -8063,14 +8275,14 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="12.75" customHeight="1">
+    <row r="71" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -8082,22 +8294,22 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="12.75" customHeight="1">
+    <row r="72" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" s="26">
+        <v>148</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="25">
         <v>4</v>
       </c>
-      <c r="E72" s="24">
+      <c r="E72" s="23">
         <v>3</v>
       </c>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -8109,22 +8321,22 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" customHeight="1">
+    <row r="73" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D73" s="26">
+        <v>150</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" s="25">
         <v>2</v>
       </c>
-      <c r="E73" s="26">
+      <c r="E73" s="25">
         <v>2</v>
       </c>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -8136,23 +8348,23 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" customHeight="1">
+    <row r="74" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
-      <c r="B74" s="19" t="str">
+      <c r="B74" s="18" t="str">
         <f>D25</f>
         <v>Rudhra</v>
       </c>
-      <c r="C74" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D74" s="26">
+      <c r="C74" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="25">
         <v>1</v>
       </c>
-      <c r="E74" s="26">
+      <c r="E74" s="25">
         <v>1</v>
       </c>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -8164,22 +8376,22 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" customHeight="1">
+    <row r="75" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="D75" s="24">
+        <v>153</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="D75" s="23">
         <v>2</v>
       </c>
-      <c r="E75" s="24">
+      <c r="E75" s="23">
         <v>1.5</v>
       </c>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -8191,14 +8403,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" customHeight="1">
+    <row r="76" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -8210,14 +8422,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" customHeight="1">
+    <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -8229,14 +8441,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" customHeight="1">
+    <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -8248,14 +8460,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" customHeight="1">
+    <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -8267,19 +8479,19 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" customHeight="1">
+    <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="26">
+      <c r="C80" s="10"/>
+      <c r="D80" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="25">
         <f>SUM(E72:E79)</f>
         <v>7.5</v>
       </c>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -8291,14 +8503,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="20"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -8310,22 +8522,22 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="C82" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="D82" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="E82" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -8337,20 +8549,20 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75" customHeight="1">
+    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="26">
+      <c r="C83" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="25">
         <v>1</v>
       </c>
-      <c r="E83" s="24">
+      <c r="E83" s="23">
         <v>1.5</v>
       </c>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -8362,22 +8574,22 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75" customHeight="1">
+    <row r="84" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="26">
+        <v>161</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="25">
         <v>1</v>
       </c>
-      <c r="E84" s="24">
+      <c r="E84" s="23">
         <v>2</v>
       </c>
-      <c r="F84" s="20"/>
-      <c r="G84" s="20"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -8389,22 +8601,22 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75" customHeight="1">
+    <row r="85" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="26">
+        <v>163</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D85" s="25">
         <v>1</v>
       </c>
-      <c r="E85" s="24">
+      <c r="E85" s="23">
         <v>1.5</v>
       </c>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -8416,23 +8628,23 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75" customHeight="1">
+    <row r="86" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
-      <c r="B86" s="19" t="str">
+      <c r="B86" s="18" t="str">
         <f>D26</f>
         <v>Shuhei Nakahodo</v>
       </c>
-      <c r="C86" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="D86" s="26">
+      <c r="C86" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D86" s="25">
         <v>1</v>
       </c>
-      <c r="E86" s="26">
+      <c r="E86" s="25">
         <v>1</v>
       </c>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -8444,22 +8656,22 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" customHeight="1">
+    <row r="87" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>170</v>
-      </c>
-      <c r="D87" s="24">
+        <v>166</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="23">
         <v>3</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E87" s="23">
         <v>1.5</v>
       </c>
-      <c r="F87" s="20"/>
-      <c r="G87" s="20"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -8471,14 +8683,14 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75" customHeight="1">
+    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="26"/>
-      <c r="F88" s="20"/>
-      <c r="G88" s="20"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -8490,14 +8702,14 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75" customHeight="1">
+    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="20"/>
-      <c r="G89" s="20"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -8509,14 +8721,14 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75" customHeight="1">
+    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="26"/>
-      <c r="F90" s="20"/>
-      <c r="G90" s="20"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -8528,14 +8740,14 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75" customHeight="1">
+    <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="26"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -8547,19 +8759,19 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75" customHeight="1">
+    <row r="92" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="E92" s="26">
+      <c r="C92" s="10"/>
+      <c r="D92" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="25">
         <f>SUM(E83:E91)</f>
         <v>7.5</v>
       </c>
-      <c r="F92" s="20"/>
-      <c r="G92" s="20"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -8573,13 +8785,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -8587,23 +8795,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.1640625" customWidth="1"/>
-    <col min="3" max="3" width="141.1640625" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="16" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" customWidth="1"/>
+    <col min="3" max="3" width="141.140625" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1">
+    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8622,13 +8832,13 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25" customHeight="1">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -8645,9 +8855,9 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="23.25" customHeight="1">
+    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="str">
+      <c r="B3" s="20" t="str">
         <f>'Iteration 1'!B3</f>
         <v>JPRS Squad</v>
       </c>
@@ -8667,7 +8877,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="9.75" customHeight="1">
+    <row r="4" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8686,7 +8896,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="str">
         <f>'Iteration 1'!B5</f>
@@ -8694,7 +8904,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>'Iteration 1'!C5</f>
-        <v>Project Manager/Test Manager</v>
+        <v>Rudhra</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -8711,7 +8921,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="23.25" customHeight="1">
+    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="str">
         <f>'Iteration 1'!B6</f>
@@ -8719,7 +8929,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>'Iteration 1'!C6</f>
-        <v>Systems Analyst</v>
+        <v>Shuhei Nakahodo</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -8736,7 +8946,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="str">
         <f>'Iteration 1'!B7</f>
@@ -8744,7 +8954,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>'Iteration 1'!C7</f>
-        <v>Architect</v>
+        <v>Paulo Goncalves</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -8761,7 +8971,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1">
+    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8780,10 +8990,10 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>174</v>
+      <c r="B9" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -8801,7 +9011,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -8820,25 +9030,25 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1">
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>175</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>177</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>180</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -8851,23 +9061,23 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="10" t="str">
+      <c r="B12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f>$C$5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -8879,21 +9089,21 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="10" t="str">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="9" t="str">
         <f>$C$5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -8905,19 +9115,19 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1">
+    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="10" t="str">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="9" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -8929,19 +9139,19 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="13" t="str">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D15" s="12" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -8953,21 +9163,21 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="13" t="str">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D16" s="12" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -8979,19 +9189,19 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="13" t="str">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="12" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -9003,18 +9213,18 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -9026,21 +9236,21 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D19" s="27" t="str">
+      <c r="B19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="26" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -9052,19 +9262,19 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D20" s="27" t="str">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="26" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -9076,20 +9286,20 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+      <c r="B21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -9101,18 +9311,18 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -9124,23 +9334,23 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" s="10" t="str">
+      <c r="B23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="9" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -9152,18 +9362,18 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -9175,21 +9385,21 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D25" s="10" t="str">
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="9" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -9201,21 +9411,21 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="10" t="str">
+      <c r="B26" s="7"/>
+      <c r="C26" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" s="9" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>209</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -9227,21 +9437,21 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D27" s="10" t="str">
+      <c r="B27" s="7"/>
+      <c r="C27" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="9" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -9253,20 +9463,20 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>214</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -9278,19 +9488,19 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D29" s="27" t="str">
+      <c r="B29" s="7"/>
+      <c r="C29" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="26" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -9302,19 +9512,19 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="13.5" customHeight="1">
+    <row r="30" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="13" t="str">
+      <c r="B30" s="7"/>
+      <c r="C30" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="12" t="str">
         <f>C7 &amp; " / " &amp;C6</f>
-        <v>Architect / Systems Analyst</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+        <v>Paulo Goncalves / Shuhei Nakahodo</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -9326,23 +9536,23 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D31" s="10" t="str">
+      <c r="B31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" s="9" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -9354,21 +9564,21 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" s="10" t="str">
+      <c r="B32" s="7"/>
+      <c r="C32" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D32" s="9" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -9380,21 +9590,21 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="D33" s="10" t="str">
+      <c r="B33" s="7"/>
+      <c r="C33" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D33" s="9" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>223</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -9406,18 +9616,18 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" s="30"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -9429,19 +9639,19 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D35" s="13" t="str">
+      <c r="B35" s="7"/>
+      <c r="C35" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="D35" s="12" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E35" s="30"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -9453,19 +9663,19 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="13" t="str">
+      <c r="B36" s="7"/>
+      <c r="C36" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D36" s="12" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -9477,14 +9687,14 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -9496,7 +9706,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="13.5" customHeight="1">
+    <row r="38" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -9515,7 +9725,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1">
+    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -9534,12 +9744,12 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C40" s="11"/>
+        <v>225</v>
+      </c>
+      <c r="C40" s="10"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -9555,10 +9765,10 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
-      <c r="C41" s="11"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -9574,12 +9784,12 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>226</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -9595,12 +9805,12 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C43" s="11"/>
+        <v>227</v>
+      </c>
+      <c r="C43" s="10"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -9616,13 +9826,13 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="19" t="str">
+      <c r="B44" s="18" t="str">
         <f>D19</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="C44" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="C44" s="10"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -9638,12 +9848,12 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>228</v>
+      </c>
+      <c r="C45" s="10"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -9659,10 +9869,10 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="10"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -9678,10 +9888,10 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="10"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -9697,10 +9907,10 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -9716,10 +9926,10 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75" customHeight="1">
+    <row r="49" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -9735,10 +9945,10 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1">
+    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -9754,10 +9964,10 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75" customHeight="1">
+    <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="11"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -9773,10 +9983,10 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75" customHeight="1">
+    <row r="52" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="11"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -9792,10 +10002,10 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75" customHeight="1">
+    <row r="53" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -9811,10 +10021,10 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75" customHeight="1">
+    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -9830,10 +10040,10 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75" customHeight="1">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="11"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -9849,10 +10059,10 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75" customHeight="1">
+    <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -9868,10 +10078,10 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="11"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -9887,10 +10097,10 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" customHeight="1">
+    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -9906,7 +10116,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="12.75" customHeight="1">
+    <row r="59" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -9925,21 +10135,21 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="12.75" customHeight="1">
+    <row r="60" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="D60" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="E60" s="37" t="s">
         <v>233</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>234</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>236</v>
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -9954,12 +10164,12 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="12.75" customHeight="1">
+    <row r="61" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="39"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="38"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -9973,22 +10183,22 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" customHeight="1">
+    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" s="26">
+        <v>234</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D62" s="25">
         <v>1</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="38">
         <v>1</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -10002,18 +10212,18 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="12.75" customHeight="1">
+    <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="D63" s="26">
+        <v>237</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D63" s="25">
         <v>2</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="38">
         <v>1.5</v>
       </c>
       <c r="F63" s="1"/>
@@ -10029,19 +10239,19 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75" customHeight="1">
+    <row r="64" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
-      <c r="B64" s="19" t="str">
+      <c r="B64" s="18" t="str">
         <f>D25</f>
-        <v>Architect</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="D64" s="26">
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D64" s="25">
         <v>3</v>
       </c>
-      <c r="E64" s="39">
+      <c r="E64" s="38">
         <v>2</v>
       </c>
       <c r="F64" s="1"/>
@@ -10057,18 +10267,18 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75" customHeight="1">
+    <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65" s="26">
+        <v>240</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" s="25">
         <v>1</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="38">
         <v>1</v>
       </c>
       <c r="F65" s="1"/>
@@ -10084,12 +10294,12 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" customHeight="1">
+    <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="39"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="38"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -10103,12 +10313,12 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75" customHeight="1">
+    <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="39"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="38"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -10122,12 +10332,12 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75" customHeight="1">
+    <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="39"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="38"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -10141,12 +10351,12 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75" customHeight="1">
+    <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="39"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -10160,14 +10370,14 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75" customHeight="1">
+    <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="E70" s="39">
+      <c r="C70" s="10"/>
+      <c r="D70" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E70" s="38">
         <f>SUM(E62:E69)</f>
         <v>5.5</v>
       </c>
@@ -10184,11 +10394,11 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="12.75" customHeight="1">
+    <row r="71" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="20"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -10203,19 +10413,19 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="12.75" customHeight="1">
+    <row r="72" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="E72" s="37" t="s">
         <v>246</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>247</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="E72" s="38" t="s">
-        <v>249</v>
       </c>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -10230,12 +10440,12 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" customHeight="1">
+    <row r="73" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="11"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="39"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="38"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -10249,14 +10459,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" customHeight="1">
+    <row r="74" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="39"/>
+        <v>247</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="38"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -10270,14 +10480,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" customHeight="1">
+    <row r="75" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="39"/>
+        <v>248</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="38"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -10291,15 +10501,15 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" customHeight="1">
+    <row r="76" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
-      <c r="B76" s="19" t="str">
+      <c r="B76" s="18" t="str">
         <f>D26</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="39"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="38"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -10313,14 +10523,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" customHeight="1">
+    <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="39"/>
+        <v>249</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="38"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -10334,12 +10544,12 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" customHeight="1">
+    <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="39"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="38"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -10353,12 +10563,12 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" customHeight="1">
+    <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="39"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="38"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -10372,12 +10582,12 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" customHeight="1">
+    <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="39"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="38"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -10391,12 +10601,12 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="11"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="39"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="38"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -10410,14 +10620,14 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="E82" s="39">
+      <c r="C82" s="10"/>
+      <c r="D82" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="E82" s="38">
         <f>SUM(E74:E81)</f>
         <v>0</v>
       </c>
@@ -10434,11 +10644,11 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75" customHeight="1">
+    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="20"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -10453,19 +10663,19 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75" customHeight="1">
+    <row r="84" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" s="37" t="s">
         <v>254</v>
-      </c>
-      <c r="C84" s="36" t="s">
-        <v>255</v>
-      </c>
-      <c r="D84" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="E84" s="38" t="s">
-        <v>257</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -10480,12 +10690,12 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75" customHeight="1">
+    <row r="85" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="39"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="38"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -10499,14 +10709,14 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75" customHeight="1">
+    <row r="86" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="39"/>
+        <v>255</v>
+      </c>
+      <c r="C86" s="10"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="38"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -10520,14 +10730,14 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" customHeight="1">
+    <row r="87" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="39"/>
+        <v>256</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="38"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -10541,15 +10751,15 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75" customHeight="1">
+    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
-      <c r="B88" s="19" t="str">
+      <c r="B88" s="18" t="str">
         <f>D27</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="39"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="38"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -10563,14 +10773,14 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75" customHeight="1">
+    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="39"/>
+        <v>257</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="38"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -10584,12 +10794,12 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75" customHeight="1">
+    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="39"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="38"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -10603,12 +10813,12 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75" customHeight="1">
+    <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="39"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="38"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -10622,12 +10832,12 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75" customHeight="1">
+    <row r="92" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="39"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="38"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -10641,12 +10851,12 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="12.75" customHeight="1">
+    <row r="93" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="39"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="38"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -10660,14 +10870,14 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="12.75" customHeight="1">
+    <row r="94" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="E94" s="39">
+      <c r="C94" s="10"/>
+      <c r="D94" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="E94" s="38">
         <f>SUM(E86:E93)</f>
         <v>0</v>
       </c>
@@ -10688,11 +10898,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10700,23 +10905,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" customWidth="1"/>
-    <col min="3" max="3" width="95.83203125" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="16" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="95.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1">
+    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10735,13 +10942,13 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25" customHeight="1">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -10758,9 +10965,9 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="23.25" customHeight="1">
+    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="str">
+      <c r="B3" s="20" t="str">
         <f>'Iteration 1'!B3</f>
         <v>JPRS Squad</v>
       </c>
@@ -10780,7 +10987,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="9.75" customHeight="1">
+    <row r="4" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -10799,7 +11006,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="str">
         <f>'Iteration 1'!B5</f>
@@ -10807,7 +11014,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>'Iteration 1'!C5</f>
-        <v>Project Manager/Test Manager</v>
+        <v>Rudhra</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -10824,7 +11031,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="23.25" customHeight="1">
+    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="str">
         <f>'Iteration 1'!B6</f>
@@ -10832,7 +11039,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>'Iteration 1'!C6</f>
-        <v>Systems Analyst</v>
+        <v>Shuhei Nakahodo</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -10849,7 +11056,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="22.5" customHeight="1">
+    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="str">
         <f>'Iteration 1'!B7</f>
@@ -10857,7 +11064,7 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>'Iteration 1'!C7</f>
-        <v>Architect</v>
+        <v>Paulo Goncalves</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -10874,7 +11081,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -10893,10 +11100,10 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="6" t="s">
-        <v>264</v>
+      <c r="B9" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -10914,7 +11121,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -10933,25 +11140,25 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1">
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="F11" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>267</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>270</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -10964,23 +11171,23 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="10" t="str">
+      <c r="B12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f>$C$5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -10992,21 +11199,21 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="10" t="str">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="D13" s="9" t="str">
         <f>$C$5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -11018,19 +11225,19 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1">
+    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D14" s="10" t="str">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="9" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -11042,19 +11249,19 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="D15" s="13" t="str">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D15" s="12" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -11066,21 +11273,21 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D16" s="13" t="str">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D16" s="12" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -11092,19 +11299,19 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="13" t="str">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D17" s="12" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -11116,22 +11323,22 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -11143,21 +11350,21 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D19" s="30" t="str">
+      <c r="B19" s="40"/>
+      <c r="C19" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D19" s="29" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>283</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -11169,21 +11376,21 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" s="30" t="str">
+      <c r="B20" s="40"/>
+      <c r="C20" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" s="29" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -11195,21 +11402,21 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D21" s="30" t="str">
+      <c r="B21" s="40"/>
+      <c r="C21" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="29" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -11221,19 +11428,19 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="D22" s="30" t="str">
+      <c r="B22" s="40"/>
+      <c r="C22" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="D22" s="29" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -11245,19 +11452,19 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="D23" s="30" t="str">
+      <c r="B23" s="40"/>
+      <c r="C23" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="D23" s="29" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -11269,20 +11476,20 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -11294,23 +11501,23 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="D25" s="30" t="str">
+      <c r="B25" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="29" t="str">
         <f>C7</f>
-        <v>Architect</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+        <v>Paulo Goncalves</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -11322,21 +11529,21 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="30" t="str">
+      <c r="B26" s="40"/>
+      <c r="C26" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D26" s="29" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -11348,22 +11555,22 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75" customHeight="1">
+    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C27" s="32" t="s">
-        <v>302</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -11375,21 +11582,21 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75" customHeight="1">
+    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="32" t="s">
-        <v>305</v>
-      </c>
-      <c r="D28" s="13" t="str">
+      <c r="B28" s="7"/>
+      <c r="C28" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D28" s="12" t="str">
         <f>C7 &amp; " / " &amp;C6</f>
-        <v>Architect / Systems Analyst</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+        <v>Paulo Goncalves / Shuhei Nakahodo</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -11401,21 +11608,21 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75" customHeight="1">
+    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D29" s="13" t="str">
+      <c r="B29" s="7"/>
+      <c r="C29" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" s="12" t="str">
         <f>C7&amp; " / " &amp;C6</f>
-        <v>Architect / Systems Analyst</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+        <v>Paulo Goncalves / Shuhei Nakahodo</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -11427,19 +11634,19 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75" customHeight="1">
+    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="D30" s="13" t="str">
+      <c r="B30" s="7"/>
+      <c r="C30" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="D30" s="12" t="str">
         <f>C7&amp; " / " &amp;C6</f>
-        <v>Architect / Systems Analyst</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
+        <v>Paulo Goncalves / Shuhei Nakahodo</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -11451,21 +11658,21 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="13.5" customHeight="1">
+    <row r="31" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="D31" s="13" t="str">
+      <c r="B31" s="7"/>
+      <c r="C31" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D31" s="12" t="str">
         <f>C7 &amp; " / " &amp;C6</f>
-        <v>Architect / Systems Analyst</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
+        <v>Paulo Goncalves / Shuhei Nakahodo</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -11477,19 +11684,19 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="13.5" customHeight="1">
+    <row r="32" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D32" s="13" t="str">
+      <c r="B32" s="7"/>
+      <c r="C32" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D32" s="12" t="str">
         <f>C7 &amp; " / " &amp;C6</f>
-        <v>Architect / Systems Analyst</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
+        <v>Paulo Goncalves / Shuhei Nakahodo</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -11501,22 +11708,22 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E33" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -11528,23 +11735,23 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
-      <c r="B34" s="41" t="s">
-        <v>317</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>318</v>
-      </c>
-      <c r="D34" s="30" t="str">
+      <c r="B34" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34" s="29" t="str">
         <f>C6</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -11556,21 +11763,21 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="31" t="s">
-        <v>320</v>
-      </c>
-      <c r="D35" s="30" t="str">
+      <c r="B35" s="40"/>
+      <c r="C35" s="30" t="s">
+        <v>317</v>
+      </c>
+      <c r="D35" s="29" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E35" s="29" t="s">
+        <v>318</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -11582,21 +11789,21 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D36" s="30" t="str">
+      <c r="B36" s="40"/>
+      <c r="C36" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="D36" s="29" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -11608,19 +11815,19 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D37" s="30" t="str">
+      <c r="B37" s="40"/>
+      <c r="C37" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D37" s="29" t="str">
         <f>C5</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -11632,20 +11839,20 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="C38" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
+      <c r="B38" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="E38" s="33"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -11657,7 +11864,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="13.5" customHeight="1">
+    <row r="39" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -11676,7 +11883,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -11695,7 +11902,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -11714,12 +11921,12 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>325</v>
+      </c>
+      <c r="C42" s="10"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -11735,10 +11942,10 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="10"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -11754,12 +11961,12 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C44" s="11"/>
+        <v>326</v>
+      </c>
+      <c r="C44" s="10"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -11775,12 +11982,12 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C45" s="11"/>
+        <v>327</v>
+      </c>
+      <c r="C45" s="10"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -11796,13 +12003,13 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
-      <c r="B46" s="19" t="str">
+      <c r="B46" s="18" t="str">
         <f>D34</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="C46" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="C46" s="10"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -11818,12 +12025,12 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C47" s="11"/>
+        <v>328</v>
+      </c>
+      <c r="C47" s="10"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -11839,10 +12046,10 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="10"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -11858,10 +12065,10 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75" customHeight="1">
+    <row r="49" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="10"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -11877,10 +12084,10 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1">
+    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="10"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -11896,10 +12103,10 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75" customHeight="1">
+    <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
-      <c r="C51" s="11"/>
+      <c r="C51" s="10"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -11915,10 +12122,10 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75" customHeight="1">
+    <row r="52" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="11"/>
+      <c r="C52" s="10"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -11934,10 +12141,10 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75" customHeight="1">
+    <row r="53" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="10"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -11953,10 +12160,10 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75" customHeight="1">
+    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="10"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -11972,10 +12179,10 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75" customHeight="1">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
-      <c r="C55" s="11"/>
+      <c r="C55" s="10"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -11991,10 +12198,10 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75" customHeight="1">
+    <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="10"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -12010,10 +12217,10 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
-      <c r="C57" s="11"/>
+      <c r="C57" s="10"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -12029,10 +12236,10 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" customHeight="1">
+    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="10"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -12048,10 +12255,10 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="12.75" customHeight="1">
+    <row r="59" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="11"/>
+      <c r="C59" s="10"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -12067,10 +12274,10 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="12.75" customHeight="1">
+    <row r="60" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="11"/>
+      <c r="C60" s="10"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -12086,10 +12293,10 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="12.75" customHeight="1">
+    <row r="61" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="10"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -12105,10 +12312,10 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" customHeight="1">
+    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="11"/>
+      <c r="C62" s="10"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -12124,10 +12331,10 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="12.75" customHeight="1">
+    <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="11"/>
+      <c r="C63" s="10"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -12143,10 +12350,10 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75" customHeight="1">
+    <row r="64" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="11"/>
+      <c r="C64" s="10"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -12162,10 +12369,10 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75" customHeight="1">
+    <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="11"/>
+      <c r="C65" s="10"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -12181,10 +12388,10 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" customHeight="1">
+    <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="11"/>
+      <c r="C66" s="10"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -12200,10 +12407,10 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75" customHeight="1">
+    <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="11"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -12219,10 +12426,10 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75" customHeight="1">
+    <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="11"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -12238,10 +12445,10 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75" customHeight="1">
+    <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="11"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -12257,10 +12464,10 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75" customHeight="1">
+    <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="11"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -12276,10 +12483,10 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="12.75" customHeight="1">
+    <row r="71" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="11"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -12295,10 +12502,10 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="12.75" customHeight="1">
+    <row r="72" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="11"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -12314,10 +12521,10 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" customHeight="1">
+    <row r="73" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="11"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -12333,7 +12540,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" customHeight="1">
+    <row r="74" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -12352,7 +12559,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" customHeight="1">
+    <row r="75" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -12371,12 +12578,12 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" customHeight="1">
+    <row r="76" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C76" s="11"/>
+        <v>329</v>
+      </c>
+      <c r="C76" s="10"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -12392,10 +12599,10 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" customHeight="1">
+    <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="11"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -12411,12 +12618,12 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" customHeight="1">
+    <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C78" s="11"/>
+        <v>330</v>
+      </c>
+      <c r="C78" s="10"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -12432,12 +12639,12 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" customHeight="1">
+    <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C79" s="11"/>
+        <v>331</v>
+      </c>
+      <c r="C79" s="10"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -12453,13 +12660,13 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" customHeight="1">
+    <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
-      <c r="B80" s="19" t="str">
+      <c r="B80" s="18" t="str">
         <f>D35</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="C80" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="C80" s="10"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -12475,12 +12682,12 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C81" s="11"/>
+        <v>332</v>
+      </c>
+      <c r="C81" s="10"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -12496,10 +12703,10 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="11"/>
+      <c r="C82" s="10"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -12519,11 +12726,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12531,23 +12733,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.1640625" customWidth="1"/>
-    <col min="3" max="3" width="95.83203125" customWidth="1"/>
-    <col min="4" max="4" width="43.5" customWidth="1"/>
-    <col min="5" max="5" width="32.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="16" width="20.6640625" customWidth="1"/>
-    <col min="17" max="17" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="95.85546875" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1">
+    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12566,13 +12770,13 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25" customHeight="1">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -12589,9 +12793,9 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="23.25" customHeight="1">
+    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="21" t="str">
+      <c r="B3" s="20" t="str">
         <f>'Iteration 1'!B3</f>
         <v>JPRS Squad</v>
       </c>
@@ -12611,7 +12815,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="23.25" customHeight="1">
+    <row r="4" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="str">
         <f>'Iteration 1'!B5</f>
@@ -12619,7 +12823,7 @@
       </c>
       <c r="C4" s="1" t="str">
         <f>'Iteration 1'!C5</f>
-        <v>Project Manager/Test Manager</v>
+        <v>Rudhra</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -12636,7 +12840,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="str">
         <f>'Iteration 1'!B6</f>
@@ -12644,7 +12848,7 @@
       </c>
       <c r="C5" s="1" t="str">
         <f>'Iteration 1'!C6</f>
-        <v>Systems Analyst</v>
+        <v>Shuhei Nakahodo</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -12661,7 +12865,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="str">
         <f>'Iteration 1'!B7</f>
@@ -12669,7 +12873,7 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>'Iteration 1'!C7</f>
-        <v>Architect</v>
+        <v>Paulo Goncalves</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -12686,7 +12890,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -12705,10 +12909,10 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="6" t="s">
-        <v>338</v>
+      <c r="B8" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -12726,7 +12930,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="13.5" customHeight="1">
+    <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -12745,25 +12949,25 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1">
+    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>341</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>342</v>
-      </c>
-      <c r="F10" s="40" t="s">
-        <v>343</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>344</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -12776,23 +12980,23 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" s="10" t="str">
+      <c r="B11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="9" t="str">
         <f>$C$4</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -12804,21 +13008,21 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D12" s="10" t="str">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f>$C$4</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -12830,19 +13034,19 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="17.25" customHeight="1">
+    <row r="13" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D13" s="10" t="str">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="9" t="str">
         <f>C4</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -12854,19 +13058,19 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D14" s="10" t="str">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="9" t="str">
         <f>C5</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -12878,21 +13082,21 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D15" s="13" t="str">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D15" s="12" t="str">
         <f>C4</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -12904,19 +13108,19 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="D16" s="13" t="str">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D16" s="12" t="str">
         <f>C4</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -12928,23 +13132,23 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="41" t="s">
-        <v>355</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="D17" s="13" t="str">
+      <c r="B17" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="12" t="str">
         <f>C6 &amp; " / " &amp;C5</f>
-        <v>Architect / Systems Analyst</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+        <v>Paulo Goncalves / Shuhei Nakahodo</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -12956,19 +13160,19 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D18" s="13" t="str">
+      <c r="B18" s="40"/>
+      <c r="C18" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D18" s="12" t="str">
         <f>C6 &amp; " / " &amp;C5</f>
-        <v>Architect / Systems Analyst</v>
-      </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+        <v>Paulo Goncalves / Shuhei Nakahodo</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -12980,20 +13184,20 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -13005,19 +13209,19 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="D20" s="30" t="str">
+      <c r="B20" s="40"/>
+      <c r="C20" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D20" s="29" t="str">
         <f>C4</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -13029,23 +13233,23 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="41" t="s">
-        <v>363</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="D21" s="30" t="str">
+      <c r="B21" s="40" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D21" s="29" t="str">
         <f>C5</f>
-        <v>Systems Analyst</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
+        <v>Shuhei Nakahodo</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -13057,19 +13261,19 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="D22" s="30" t="str">
+      <c r="B22" s="40"/>
+      <c r="C22" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="D22" s="29" t="str">
         <f>C4</f>
-        <v>Project Manager/Test Manager</v>
-      </c>
-      <c r="E22" s="30"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
+        <v>Rudhra</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -13081,22 +13285,22 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="C23" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -13108,20 +13312,20 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="43" t="s">
-        <v>371</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="B24" s="42" t="s">
+        <v>368</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -13133,7 +13337,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -13156,10 +13360,5 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Documentation/Task List -Iteration 2 - Epworth Project .xlsx
+++ b/Documentation/Task List -Iteration 2 - Epworth Project .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="570" windowWidth="11175" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="580" windowWidth="38000" windowHeight="21920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Iteration 1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,12 @@
     <sheet name="Iteration 4" sheetId="4" r:id="rId4"/>
     <sheet name="Iteration 5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -339,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="378">
   <si>
     <t>Team Name</t>
   </si>
@@ -1479,7 +1484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1698,6 +1703,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2034,10 +2051,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2186,8 +2207,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2632,6 +2660,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1701800</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3064,6 +3143,57 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9639300</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -3502,6 +3632,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9664700</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3934,6 +4115,57 @@
           <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -4372,6 +4604,57 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 5" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4668,21 +4951,21 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="102.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="3" max="3" width="102.5" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="16" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="21" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4701,7 +4984,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="24" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -4724,7 +5007,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="24" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="45" t="s">
         <v>371</v>
@@ -4745,7 +5028,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="9.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4764,7 +5047,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="22.5" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -4787,7 +5070,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -4810,7 +5093,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -4833,7 +5116,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4852,7 +5135,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>5</v>
@@ -4873,7 +5156,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4892,7 +5175,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="33.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>6</v>
@@ -4923,7 +5206,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="30.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>12</v>
@@ -4951,7 +5234,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="30" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
@@ -4977,7 +5260,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
@@ -5000,7 +5283,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="30" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
@@ -5024,7 +5307,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7" t="s">
         <v>20</v>
@@ -5049,7 +5332,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="30" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7" t="s">
         <v>23</v>
@@ -5075,7 +5358,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
@@ -5098,7 +5381,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>27</v>
@@ -5124,7 +5407,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="30" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
@@ -5148,7 +5431,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
@@ -5172,7 +5455,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8" t="s">
@@ -5196,7 +5479,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>32</v>
@@ -5222,7 +5505,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
@@ -5246,7 +5529,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="30" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
@@ -5270,7 +5553,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="18" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="7" t="s">
         <v>36</v>
@@ -5296,7 +5579,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="18" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
@@ -5320,7 +5603,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="18" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
@@ -5344,7 +5627,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="18" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8" t="s">
@@ -5368,7 +5651,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8" t="s">
@@ -5392,7 +5675,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="13" t="s">
         <v>42</v>
@@ -5417,7 +5700,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="13.5" customHeight="1">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -5436,7 +5719,7 @@
       <c r="P32" s="17"/>
       <c r="Q32" s="17"/>
     </row>
-    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="12.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5455,7 +5738,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="12.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5474,7 +5757,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="12.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5493,7 +5776,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="12.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
         <v>45</v>
@@ -5514,7 +5797,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="10"/>
@@ -5533,7 +5816,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>46</v>
@@ -5554,7 +5837,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>47</v>
@@ -5575,7 +5858,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="18" t="e">
         <f>D19</f>
@@ -5597,7 +5880,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>48</v>
@@ -5618,7 +5901,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="10"/>
@@ -5637,7 +5920,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="10"/>
@@ -5656,7 +5939,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="10"/>
@@ -5675,7 +5958,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="10"/>
@@ -5694,7 +5977,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="10"/>
@@ -5713,7 +5996,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="10"/>
@@ -5732,7 +6015,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="10"/>
@@ -5751,7 +6034,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="12.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="10"/>
@@ -5770,7 +6053,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="10"/>
@@ -5789,7 +6072,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5808,7 +6091,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="12.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
         <v>49</v>
@@ -5829,7 +6112,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
@@ -5848,7 +6131,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1" t="s">
         <v>50</v>
@@ -5869,7 +6152,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>51</v>
@@ -5890,7 +6173,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="18" t="str">
         <f>D20</f>
@@ -5912,7 +6195,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>52</v>
@@ -5933,7 +6216,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="12.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="10"/>
@@ -5952,7 +6235,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="12.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="10"/>
@@ -5971,7 +6254,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="12.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="10"/>
@@ -5990,7 +6273,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="12.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="10"/>
@@ -6009,7 +6292,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="12.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="10"/>
@@ -6028,7 +6311,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="12.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="10"/>
@@ -6047,7 +6330,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="12.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="10"/>
@@ -6066,7 +6349,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="12.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="10"/>
@@ -6085,7 +6368,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="10"/>
@@ -6104,7 +6387,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="12.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6123,7 +6406,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="12.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>53</v>
@@ -6144,7 +6427,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="12.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="10"/>
@@ -6163,7 +6446,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="12.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>54</v>
@@ -6184,7 +6467,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="12.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1" t="s">
         <v>55</v>
@@ -6205,7 +6488,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="12.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="18" t="str">
         <f>D21</f>
@@ -6227,7 +6510,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="12.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>56</v>
@@ -6248,7 +6531,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="12.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="10"/>
@@ -6267,7 +6550,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="12.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="10"/>
@@ -6286,7 +6569,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="12.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="10"/>
@@ -6305,7 +6588,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="10"/>
@@ -6324,7 +6607,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="10"/>
@@ -6343,7 +6626,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="10"/>
@@ -6362,7 +6645,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="12.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="10"/>
@@ -6381,7 +6664,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="10"/>
@@ -6400,7 +6683,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="10"/>
@@ -6419,7 +6702,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="12.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6438,7 +6721,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="12.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="2" t="s">
         <v>57</v>
@@ -6459,7 +6742,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="12.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="10"/>
@@ -6478,7 +6761,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="12.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>58</v>
@@ -6499,7 +6782,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="12.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>59</v>
@@ -6520,7 +6803,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="12.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="18" t="str">
         <f>D22</f>
@@ -6542,7 +6825,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="12.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>60</v>
@@ -6563,7 +6846,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="12.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="10"/>
@@ -6586,6 +6869,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6593,25 +6881,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="141.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="3" max="3" width="141.1640625" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="16" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="23.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6630,7 +6918,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>61</v>
@@ -6653,7 +6941,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="23.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="str">
         <f>'Iteration 1'!B3</f>
@@ -6677,7 +6965,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="9" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6696,7 +6984,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="str">
         <f>'Iteration 1'!B5</f>
@@ -6720,7 +7008,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="23.25" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="str">
         <f>'Iteration 1'!B6</f>
@@ -6744,7 +7032,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="str">
         <f>'Iteration 1'!B7</f>
@@ -6768,7 +7056,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6787,7 +7075,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>66</v>
@@ -6808,7 +7096,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6827,7 +7115,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="22" t="s">
         <v>67</v>
@@ -6864,7 +7152,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" thickTop="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>73</v>
@@ -6896,7 +7184,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
@@ -6922,7 +7210,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="17.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
@@ -6946,7 +7234,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
@@ -6976,7 +7264,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
@@ -7000,7 +7288,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
@@ -7024,7 +7312,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
@@ -7047,7 +7335,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>87</v>
@@ -7073,7 +7361,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
@@ -7097,7 +7385,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>90</v>
@@ -7124,7 +7412,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="28" t="s">
@@ -7149,7 +7437,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>95</v>
@@ -7177,7 +7465,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
@@ -7207,7 +7495,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
@@ -7237,7 +7525,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
@@ -7267,7 +7555,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
@@ -7282,7 +7570,9 @@
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="25"/>
+      <c r="I27" s="46" t="s">
+        <v>376</v>
+      </c>
       <c r="J27" s="46" t="s">
         <v>377</v>
       </c>
@@ -7296,7 +7586,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="30" t="s">
@@ -7320,7 +7610,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="31" t="s">
@@ -7344,7 +7634,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="15" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="7" t="s">
         <v>109</v>
@@ -7376,7 +7666,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
@@ -7389,7 +7679,7 @@
       <c r="E31" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="25"/>
       <c r="H31" s="1"/>
       <c r="I31" s="25"/>
@@ -7402,7 +7692,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
@@ -7434,7 +7724,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
@@ -7462,7 +7752,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
@@ -7490,7 +7780,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="7"/>
       <c r="C35" s="14"/>
@@ -7509,7 +7799,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="13.5" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -7528,7 +7818,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -7547,7 +7837,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="12.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
         <v>116</v>
@@ -7570,7 +7860,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="10" t="s">
@@ -7591,7 +7881,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>119</v>
@@ -7614,7 +7904,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>121</v>
@@ -7637,7 +7927,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="18" t="str">
         <f>D19</f>
@@ -7661,7 +7951,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>124</v>
@@ -7684,7 +7974,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="10" t="s">
@@ -7705,7 +7995,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="10" t="s">
@@ -7726,7 +8016,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="10"/>
@@ -7745,7 +8035,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="10"/>
@@ -7764,7 +8054,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="10"/>
@@ -7783,7 +8073,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="12.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="10"/>
@@ -7802,7 +8092,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="10"/>
@@ -7821,7 +8111,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="10"/>
@@ -7840,7 +8130,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="12.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="10"/>
@@ -7859,7 +8149,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
@@ -7878,7 +8168,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="10"/>
@@ -7897,7 +8187,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="10"/>
@@ -7916,7 +8206,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="10"/>
@@ -7935,7 +8225,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -7954,7 +8244,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>128</v>
       </c>
@@ -7983,7 +8273,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="12.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="10"/>
@@ -8002,7 +8292,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="12.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>133</v>
@@ -8029,7 +8319,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="12.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>135</v>
@@ -8056,7 +8346,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="12.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="18" t="str">
         <f>D24</f>
@@ -8084,7 +8374,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="12.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>138</v>
@@ -8111,7 +8401,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="12.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="10" t="s">
@@ -8136,7 +8426,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="12.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="10" t="s">
@@ -8161,7 +8451,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="10" t="s">
@@ -8186,7 +8476,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="12.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="10"/>
@@ -8205,7 +8495,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="12.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="10"/>
@@ -8229,7 +8519,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="12.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -8248,7 +8538,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="12.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="18" t="s">
         <v>144</v>
@@ -8275,7 +8565,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="12.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="10"/>
@@ -8294,7 +8584,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="12.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1" t="s">
         <v>148</v>
@@ -8321,7 +8611,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="12.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1" t="s">
         <v>150</v>
@@ -8348,7 +8638,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="12.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="18" t="str">
         <f>D25</f>
@@ -8376,7 +8666,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="12.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>153</v>
@@ -8403,7 +8693,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="12.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="10"/>
@@ -8422,7 +8712,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="10"/>
@@ -8441,7 +8731,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="10"/>
@@ -8460,7 +8750,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="10"/>
@@ -8479,7 +8769,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="12.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="10"/>
@@ -8503,7 +8793,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -8522,7 +8812,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="18" t="s">
         <v>156</v>
@@ -8549,7 +8839,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="12.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="10" t="s">
@@ -8574,7 +8864,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="12.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
         <v>161</v>
@@ -8601,7 +8891,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="12.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
         <v>163</v>
@@ -8628,7 +8918,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="12.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="18" t="str">
         <f>D26</f>
@@ -8656,7 +8946,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="12.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>166</v>
@@ -8683,7 +8973,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="12.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="10"/>
@@ -8702,7 +8992,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="12.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="10"/>
@@ -8721,7 +9011,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="12.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="10"/>
@@ -8740,7 +9030,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="12.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="10"/>
@@ -8759,7 +9049,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="12.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="10"/>
@@ -8785,9 +9075,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -8799,21 +9094,21 @@
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="141.140625" customWidth="1"/>
-    <col min="4" max="4" width="43.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.1640625" customWidth="1"/>
+    <col min="3" max="3" width="141.1640625" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="16" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="23.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8832,7 +9127,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>169</v>
@@ -8855,7 +9150,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="23.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="str">
         <f>'Iteration 1'!B3</f>
@@ -8877,7 +9172,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="9.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -8896,7 +9191,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="str">
         <f>'Iteration 1'!B5</f>
@@ -8921,7 +9216,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="23.25" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="str">
         <f>'Iteration 1'!B6</f>
@@ -8946,7 +9241,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="23.25" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="str">
         <f>'Iteration 1'!B7</f>
@@ -8971,7 +9266,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="17.25" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8990,7 +9285,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>171</v>
@@ -9011,7 +9306,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -9030,7 +9325,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="22" t="s">
         <v>172</v>
@@ -9061,7 +9356,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>178</v>
@@ -9089,7 +9384,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
@@ -9115,7 +9410,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="17.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
@@ -9139,7 +9434,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
@@ -9163,7 +9458,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="18.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
@@ -9189,7 +9484,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
@@ -9213,7 +9508,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8" t="s">
@@ -9236,7 +9531,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>190</v>
@@ -9262,7 +9557,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8" t="s">
@@ -9286,7 +9581,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="7" t="s">
         <v>193</v>
@@ -9311,7 +9606,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="7"/>
       <c r="C22" s="28" t="s">
@@ -9334,7 +9629,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="7" t="s">
         <v>198</v>
@@ -9362,7 +9657,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8" t="s">
@@ -9385,7 +9680,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
@@ -9411,7 +9706,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="7"/>
       <c r="C26" s="8" t="s">
@@ -9437,7 +9732,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="15" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
@@ -9463,7 +9758,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="15" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8" t="s">
@@ -9488,7 +9783,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="15" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="30" t="s">
@@ -9512,7 +9807,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="31" t="s">
@@ -9536,7 +9831,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="15" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="7" t="s">
         <v>214</v>
@@ -9564,7 +9859,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="15" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8" t="s">
@@ -9590,7 +9885,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8" t="s">
@@ -9616,7 +9911,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8" t="s">
@@ -9639,7 +9934,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8" t="s">
@@ -9663,7 +9958,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8" t="s">
@@ -9687,7 +9982,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="7"/>
       <c r="C37" s="14"/>
@@ -9706,7 +10001,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="13.5" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -9725,7 +10020,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="12.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -9744,7 +10039,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
         <v>225</v>
@@ -9765,7 +10060,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="10"/>
@@ -9784,7 +10079,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>226</v>
@@ -9805,7 +10100,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>227</v>
@@ -9826,7 +10121,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="18" t="str">
         <f>D19</f>
@@ -9848,7 +10143,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>228</v>
@@ -9869,7 +10164,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="10"/>
@@ -9888,7 +10183,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="10"/>
@@ -9907,7 +10202,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="10"/>
@@ -9926,7 +10221,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="12.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="10"/>
@@ -9945,7 +10240,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="10"/>
@@ -9964,7 +10259,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="10"/>
@@ -9983,7 +10278,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="12.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="10"/>
@@ -10002,7 +10297,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
@@ -10021,7 +10316,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="10"/>
@@ -10040,7 +10335,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="10"/>
@@ -10059,7 +10354,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="10"/>
@@ -10078,7 +10373,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="10"/>
@@ -10097,7 +10392,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="12.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="10"/>
@@ -10116,7 +10411,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="12.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -10135,7 +10430,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>229</v>
       </c>
@@ -10164,7 +10459,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="12.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="10"/>
@@ -10183,7 +10478,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="12.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1" t="s">
         <v>234</v>
@@ -10212,7 +10507,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="12.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>237</v>
@@ -10239,7 +10534,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="12.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="18" t="str">
         <f>D25</f>
@@ -10267,7 +10562,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="12.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>240</v>
@@ -10294,7 +10589,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="10"/>
@@ -10313,7 +10608,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="12.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="10"/>
@@ -10332,7 +10627,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="12.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="10"/>
@@ -10351,7 +10646,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="12.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="10"/>
@@ -10370,7 +10665,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="12.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="10"/>
@@ -10394,7 +10689,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="12.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -10413,7 +10708,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="12.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="18" t="s">
         <v>243</v>
@@ -10440,7 +10735,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="12.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="10"/>
@@ -10459,7 +10754,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="12.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
         <v>247</v>
@@ -10480,7 +10775,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="12.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
         <v>248</v>
@@ -10501,7 +10796,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="12.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="18" t="str">
         <f>D26</f>
@@ -10523,7 +10818,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>249</v>
@@ -10544,7 +10839,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="10"/>
@@ -10563,7 +10858,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="10"/>
@@ -10582,7 +10877,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="12.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="10"/>
@@ -10601,7 +10896,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="10"/>
@@ -10620,7 +10915,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="10"/>
@@ -10644,7 +10939,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" ht="12.75" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -10663,7 +10958,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" ht="12.75" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="18" t="s">
         <v>251</v>
@@ -10690,7 +10985,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" ht="12.75" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="10"/>
@@ -10709,7 +11004,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" ht="12.75" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
         <v>255</v>
@@ -10730,7 +11025,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" ht="12.75" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
         <v>256</v>
@@ -10751,7 +11046,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" ht="12.75" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="18" t="str">
         <f>D27</f>
@@ -10773,7 +11068,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" ht="12.75" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="1" t="s">
         <v>257</v>
@@ -10794,7 +11089,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" ht="12.75" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="10"/>
@@ -10813,7 +11108,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" ht="12.75" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="10"/>
@@ -10832,7 +11127,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" ht="12.75" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="10"/>
@@ -10851,7 +11146,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" ht="12.75" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="10"/>
@@ -10870,7 +11165,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" ht="12.75" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="10"/>
@@ -10898,6 +11193,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10909,21 +11209,21 @@
       <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="95.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="95.83203125" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="16" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="23.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10942,7 +11242,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>259</v>
@@ -10965,7 +11265,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="23.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="str">
         <f>'Iteration 1'!B3</f>
@@ -10987,7 +11287,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="9.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -11006,7 +11306,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="str">
         <f>'Iteration 1'!B5</f>
@@ -11031,7 +11331,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="23.25" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="str">
         <f>'Iteration 1'!B6</f>
@@ -11056,7 +11356,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="22.5" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="str">
         <f>'Iteration 1'!B7</f>
@@ -11081,7 +11381,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11100,7 +11400,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>261</v>
@@ -11121,7 +11421,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -11140,7 +11440,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="16.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="39" t="s">
         <v>262</v>
@@ -11171,7 +11471,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
         <v>268</v>
@@ -11199,7 +11499,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
@@ -11225,7 +11525,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="17.25" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
@@ -11249,7 +11549,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
@@ -11273,7 +11573,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
@@ -11299,7 +11599,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
@@ -11323,7 +11623,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="40" t="s">
         <v>278</v>
@@ -11350,7 +11650,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="40"/>
       <c r="C19" s="8" t="s">
@@ -11376,7 +11676,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="40"/>
       <c r="C20" s="8" t="s">
@@ -11402,7 +11702,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="40"/>
       <c r="C21" s="8" t="s">
@@ -11428,7 +11728,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="40"/>
       <c r="C22" s="30" t="s">
@@ -11452,7 +11752,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="40"/>
       <c r="C23" s="30" t="s">
@@ -11476,7 +11776,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="40"/>
       <c r="C24" s="30" t="s">
@@ -11501,7 +11801,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="15" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="40" t="s">
         <v>293</v>
@@ -11529,7 +11829,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="15" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="40"/>
       <c r="C26" s="30" t="s">
@@ -11555,7 +11855,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="12.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="41" t="s">
         <v>298</v>
@@ -11582,7 +11882,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="12.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="7"/>
       <c r="C28" s="31" t="s">
@@ -11608,7 +11908,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="12.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="7"/>
       <c r="C29" s="31" t="s">
@@ -11634,7 +11934,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="12.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="7"/>
       <c r="C30" s="31" t="s">
@@ -11658,7 +11958,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="7"/>
       <c r="C31" s="31" t="s">
@@ -11684,7 +11984,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="7"/>
       <c r="C32" s="31" t="s">
@@ -11708,7 +12008,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" ht="15" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="40" t="s">
         <v>310</v>
@@ -11735,7 +12035,7 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="40" t="s">
         <v>314</v>
@@ -11763,7 +12063,7 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" ht="15" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="40"/>
       <c r="C35" s="30" t="s">
@@ -11789,7 +12089,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="40"/>
       <c r="C36" s="8" t="s">
@@ -11815,7 +12115,7 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" ht="15" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="40"/>
       <c r="C37" s="8" t="s">
@@ -11839,7 +12139,7 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="42" t="s">
         <v>322</v>
@@ -11864,7 +12164,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" ht="13.5" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -11883,7 +12183,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" ht="12.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -11902,7 +12202,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -11921,7 +12221,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" ht="12.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
         <v>325</v>
@@ -11942,7 +12242,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" ht="12.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="10"/>
@@ -11961,7 +12261,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" ht="12.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>326</v>
@@ -11982,7 +12282,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>327</v>
@@ -12003,7 +12303,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" ht="12.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="18" t="str">
         <f>D34</f>
@@ -12025,7 +12325,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" ht="12.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>328</v>
@@ -12046,7 +12346,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" ht="12.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="10"/>
@@ -12065,7 +12365,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" ht="12.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="10"/>
@@ -12084,7 +12384,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" ht="12.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="10"/>
@@ -12103,7 +12403,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" ht="12.75" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="10"/>
@@ -12122,7 +12422,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" ht="12.75" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="10"/>
@@ -12141,7 +12441,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" ht="12.75" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="10"/>
@@ -12160,7 +12460,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" ht="12.75" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="10"/>
@@ -12179,7 +12479,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" ht="12.75" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="10"/>
@@ -12198,7 +12498,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" ht="12.75" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="10"/>
@@ -12217,7 +12517,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" ht="12.75" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="10"/>
@@ -12236,7 +12536,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" ht="12.75" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="10"/>
@@ -12255,7 +12555,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" ht="12.75" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="10"/>
@@ -12274,7 +12574,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" ht="12.75" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="10"/>
@@ -12293,7 +12593,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" ht="12.75" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="10"/>
@@ -12312,7 +12612,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" ht="12.75" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="10"/>
@@ -12331,7 +12631,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" ht="12.75" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="10"/>
@@ -12350,7 +12650,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" ht="12.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="10"/>
@@ -12369,7 +12669,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" ht="12.75" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="10"/>
@@ -12388,7 +12688,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" ht="12.75" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="10"/>
@@ -12407,7 +12707,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" ht="12.75" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="10"/>
@@ -12426,7 +12726,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" ht="12.75" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="10"/>
@@ -12445,7 +12745,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" ht="12.75" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="10"/>
@@ -12464,7 +12764,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" ht="12.75" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="10"/>
@@ -12483,7 +12783,7 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" ht="12.75" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="10"/>
@@ -12502,7 +12802,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" ht="12.75" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="10"/>
@@ -12521,7 +12821,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" ht="12.75" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="10"/>
@@ -12540,7 +12840,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" ht="12.75" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -12559,7 +12859,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" ht="12.75" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -12578,7 +12878,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" ht="12.75" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
         <v>329</v>
@@ -12599,7 +12899,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" ht="12.75" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="10"/>
@@ -12618,7 +12918,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" ht="12.75" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="1" t="s">
         <v>330</v>
@@ -12639,7 +12939,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" ht="12.75" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="1" t="s">
         <v>331</v>
@@ -12660,7 +12960,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" ht="12.75" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="18" t="str">
         <f>D35</f>
@@ -12682,7 +12982,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" ht="12.75" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
         <v>332</v>
@@ -12703,7 +13003,7 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" ht="12.75" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="10"/>
@@ -12726,6 +13026,11 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -12737,21 +13042,21 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="95.85546875" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="16" width="20.7109375" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="95.83203125" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="5" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="16" width="20.6640625" customWidth="1"/>
+    <col min="17" max="17" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="23.25" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12770,7 +13075,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="23.25" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>333</v>
@@ -12793,7 +13098,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="23.25" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="20" t="str">
         <f>'Iteration 1'!B3</f>
@@ -12815,7 +13120,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="23.25" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="str">
         <f>'Iteration 1'!B5</f>
@@ -12840,7 +13145,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="23.25" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="str">
         <f>'Iteration 1'!B6</f>
@@ -12865,7 +13170,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="22.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="str">
         <f>'Iteration 1'!B7</f>
@@ -12890,7 +13195,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -12909,7 +13214,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>335</v>
@@ -12930,7 +13235,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="13.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -12949,7 +13254,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="16.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="39" t="s">
         <v>336</v>
@@ -12980,7 +13285,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="7" t="s">
         <v>342</v>
@@ -13008,7 +13313,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8" t="s">
@@ -13034,7 +13339,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="17.25" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8" t="s">
@@ -13058,7 +13363,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="7"/>
       <c r="C14" s="8" t="s">
@@ -13082,7 +13387,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
@@ -13108,7 +13413,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8" t="s">
@@ -13132,7 +13437,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="40" t="s">
         <v>352</v>
@@ -13160,7 +13465,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="40"/>
       <c r="C18" s="8" t="s">
@@ -13184,7 +13489,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="40"/>
       <c r="C19" s="8" t="s">
@@ -13209,7 +13514,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="40"/>
       <c r="C20" s="30" t="s">
@@ -13233,7 +13538,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="40" t="s">
         <v>360</v>
@@ -13261,7 +13566,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="40"/>
       <c r="C22" s="30" t="s">
@@ -13285,7 +13590,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="40" t="s">
         <v>364</v>
@@ -13312,7 +13617,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="42" t="s">
         <v>368</v>
@@ -13337,7 +13642,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="13.5" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -13360,5 +13665,10 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>